--- a/results/mp/deberta/corona/confidence/126/stop-words-topk-0.2/avg_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/126/stop-words-topk-0.2/avg_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1182" uniqueCount="1027">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1180" uniqueCount="1027">
   <si>
     <t>anchor score</t>
   </si>
@@ -412,493 +412,493 @@
     <t>good</t>
   </si>
   <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>problem</t>
+  </si>
+  <si>
+    <t>trading</t>
+  </si>
+  <si>
+    <t>symptoms</t>
+  </si>
+  <si>
+    <t>risk</t>
+  </si>
+  <si>
+    <t>volunteers</t>
+  </si>
+  <si>
+    <t>plan</t>
+  </si>
+  <si>
+    <t>app</t>
+  </si>
+  <si>
+    <t>disruption</t>
+  </si>
+  <si>
+    <t>sorry</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>eu</t>
+  </si>
+  <si>
+    <t>mortgage</t>
+  </si>
+  <si>
+    <t>hospitals</t>
+  </si>
+  <si>
+    <t>hunger</t>
+  </si>
+  <si>
+    <t>inflated</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>toronto</t>
+  </si>
+  <si>
+    <t>finally</t>
+  </si>
+  <si>
+    <t>move</t>
+  </si>
+  <si>
+    <t>fighting</t>
+  </si>
+  <si>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>experience</t>
+  </si>
+  <si>
+    <t>residents</t>
+  </si>
+  <si>
+    <t>kind</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>provide</t>
+  </si>
+  <si>
+    <t>bad</t>
+  </si>
+  <si>
+    <t>live</t>
+  </si>
+  <si>
+    <t>uncertainty</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>hell</t>
+  </si>
+  <si>
+    <t>team</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>especially</t>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>whole</t>
+  </si>
+  <si>
+    <t>q</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>rising</t>
+  </si>
+  <si>
+    <t>epidemic</t>
+  </si>
+  <si>
+    <t>person</t>
+  </si>
+  <si>
+    <t>bit</t>
+  </si>
+  <si>
+    <t>fight</t>
+  </si>
+  <si>
+    <t>wrong</t>
+  </si>
+  <si>
+    <t>means</t>
+  </si>
+  <si>
+    <t>stimulus</t>
+  </si>
+  <si>
+    <t>pressure</t>
+  </si>
+  <si>
+    <t>website</t>
+  </si>
+  <si>
+    <t>putting</t>
+  </si>
+  <si>
+    <t>kids</t>
+  </si>
+  <si>
+    <t>collapse</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>worried</t>
+  </si>
+  <si>
+    <t>ia</t>
+  </si>
+  <si>
+    <t>full</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>national</t>
+  </si>
+  <si>
+    <t>advantage</t>
+  </si>
+  <si>
+    <t>company</t>
+  </si>
+  <si>
+    <t>die</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>stays</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>delivery</t>
+  </si>
+  <si>
+    <t>face</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
+    <t>place</t>
+  </si>
+  <si>
+    <t>part</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>items</t>
+  </si>
+  <si>
+    <t>profit</t>
+  </si>
+  <si>
+    <t>helping</t>
+  </si>
+  <si>
+    <t>foods</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>shops</t>
+  </si>
+  <si>
+    <t>give</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>check</t>
+  </si>
+  <si>
+    <t>feel</t>
+  </si>
+  <si>
+    <t>everyone</t>
+  </si>
+  <si>
+    <t>healthcare</t>
+  </si>
+  <si>
+    <t>read</t>
+  </si>
+  <si>
+    <t>come</t>
+  </si>
+  <si>
+    <t>markets</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>watch</t>
+  </si>
+  <si>
+    <t>increased</t>
+  </si>
+  <si>
+    <t>outbreak</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>two</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>000</t>
+  </si>
+  <si>
+    <t>left</t>
+  </si>
+  <si>
+    <t>march</t>
+  </si>
+  <si>
+    <t>line</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>made</t>
+  </si>
+  <si>
+    <t>gloves</t>
+  </si>
+  <si>
+    <t>real</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>house</t>
+  </si>
+  <si>
+    <t>look</t>
+  </si>
+  <si>
+    <t>companies</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>amp</t>
+  </si>
+  <si>
+    <t>staff</t>
+  </si>
+  <si>
+    <t>shop</t>
+  </si>
+  <si>
+    <t>supply</t>
+  </si>
+  <si>
+    <t>week</t>
+  </si>
+  <si>
+    <t>making</t>
+  </si>
+  <si>
+    <t>way</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>got</t>
+  </si>
+  <si>
+    <t>supermarkets</t>
+  </si>
+  <si>
+    <t>uk</t>
+  </si>
+  <si>
+    <t>may</t>
+  </si>
+  <si>
+    <t>paper</t>
+  </si>
+  <si>
+    <t>news</t>
+  </si>
+  <si>
+    <t>essential</t>
+  </si>
+  <si>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>di</t>
+  </si>
+  <si>
+    <t>local</t>
+  </si>
+  <si>
+    <t>work</t>
+  </si>
+  <si>
+    <t>retail</t>
+  </si>
+  <si>
+    <t>still</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>buying</t>
+  </si>
+  <si>
+    <t>shelves</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>people</t>
+  </si>
+  <si>
+    <t>toilet</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>amid</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>via</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>us</t>
+  </si>
+  <si>
+    <t>stop</t>
+  </si>
+  <si>
+    <t>supermarket</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>corona</t>
+  </si>
+  <si>
+    <t>go</t>
+  </si>
+  <si>
+    <t>pan</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
-    <t>month</t>
-  </si>
-  <si>
-    <t>l</t>
+    <t>gift</t>
+  </si>
+  <si>
+    <t>friend</t>
   </si>
   <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>problem</t>
-  </si>
-  <si>
-    <t>trading</t>
-  </si>
-  <si>
-    <t>symptoms</t>
-  </si>
-  <si>
-    <t>risk</t>
-  </si>
-  <si>
-    <t>volunteers</t>
-  </si>
-  <si>
-    <t>plan</t>
-  </si>
-  <si>
-    <t>app</t>
-  </si>
-  <si>
-    <t>disruption</t>
-  </si>
-  <si>
-    <t>sorry</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>eu</t>
-  </si>
-  <si>
-    <t>mortgage</t>
-  </si>
-  <si>
-    <t>hospitals</t>
-  </si>
-  <si>
-    <t>hunger</t>
-  </si>
-  <si>
-    <t>inflated</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>toronto</t>
-  </si>
-  <si>
-    <t>finally</t>
-  </si>
-  <si>
-    <t>move</t>
-  </si>
-  <si>
-    <t>fighting</t>
-  </si>
-  <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>experience</t>
-  </si>
-  <si>
-    <t>residents</t>
-  </si>
-  <si>
-    <t>kind</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>provide</t>
-  </si>
-  <si>
-    <t>bad</t>
-  </si>
-  <si>
-    <t>live</t>
-  </si>
-  <si>
-    <t>uncertainty</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>hell</t>
-  </si>
-  <si>
-    <t>team</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>especially</t>
-  </si>
-  <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>whole</t>
-  </si>
-  <si>
-    <t>q</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>rising</t>
-  </si>
-  <si>
-    <t>epidemic</t>
-  </si>
-  <si>
-    <t>person</t>
-  </si>
-  <si>
-    <t>bit</t>
-  </si>
-  <si>
-    <t>fight</t>
-  </si>
-  <si>
-    <t>wrong</t>
-  </si>
-  <si>
-    <t>means</t>
-  </si>
-  <si>
-    <t>stimulus</t>
-  </si>
-  <si>
-    <t>pressure</t>
-  </si>
-  <si>
-    <t>website</t>
-  </si>
-  <si>
-    <t>putting</t>
-  </si>
-  <si>
-    <t>kids</t>
-  </si>
-  <si>
-    <t>collapse</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>worried</t>
-  </si>
-  <si>
-    <t>ia</t>
-  </si>
-  <si>
-    <t>full</t>
-  </si>
-  <si>
-    <t>g</t>
-  </si>
-  <si>
-    <t>national</t>
-  </si>
-  <si>
-    <t>advantage</t>
-  </si>
-  <si>
-    <t>company</t>
-  </si>
-  <si>
-    <t>die</t>
-  </si>
-  <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>stays</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>delivery</t>
-  </si>
-  <si>
-    <t>face</t>
-  </si>
-  <si>
-    <t>also</t>
-  </si>
-  <si>
-    <t>place</t>
-  </si>
-  <si>
-    <t>part</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>items</t>
-  </si>
-  <si>
-    <t>profit</t>
-  </si>
-  <si>
-    <t>helping</t>
-  </si>
-  <si>
-    <t>foods</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>shops</t>
-  </si>
-  <si>
-    <t>give</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>check</t>
-  </si>
-  <si>
-    <t>feel</t>
-  </si>
-  <si>
-    <t>everyone</t>
-  </si>
-  <si>
-    <t>healthcare</t>
-  </si>
-  <si>
-    <t>read</t>
-  </si>
-  <si>
-    <t>come</t>
-  </si>
-  <si>
-    <t>markets</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>watch</t>
-  </si>
-  <si>
-    <t>increased</t>
-  </si>
-  <si>
-    <t>outbreak</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>two</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>000</t>
-  </si>
-  <si>
-    <t>left</t>
-  </si>
-  <si>
-    <t>march</t>
-  </si>
-  <si>
-    <t>line</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>made</t>
-  </si>
-  <si>
-    <t>gloves</t>
-  </si>
-  <si>
-    <t>real</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>house</t>
-  </si>
-  <si>
-    <t>look</t>
-  </si>
-  <si>
-    <t>companies</t>
-  </si>
-  <si>
-    <t>u</t>
-  </si>
-  <si>
-    <t>amp</t>
-  </si>
-  <si>
-    <t>staff</t>
-  </si>
-  <si>
-    <t>shop</t>
-  </si>
-  <si>
-    <t>supply</t>
-  </si>
-  <si>
-    <t>week</t>
-  </si>
-  <si>
-    <t>making</t>
-  </si>
-  <si>
-    <t>way</t>
-  </si>
-  <si>
-    <t>food</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>got</t>
-  </si>
-  <si>
-    <t>supermarkets</t>
-  </si>
-  <si>
-    <t>uk</t>
-  </si>
-  <si>
-    <t>may</t>
-  </si>
-  <si>
-    <t>paper</t>
-  </si>
-  <si>
-    <t>news</t>
-  </si>
-  <si>
-    <t>essential</t>
-  </si>
-  <si>
-    <t>consumer</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>di</t>
-  </si>
-  <si>
-    <t>local</t>
-  </si>
-  <si>
-    <t>work</t>
-  </si>
-  <si>
-    <t>retail</t>
-  </si>
-  <si>
-    <t>still</t>
-  </si>
-  <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>buying</t>
-  </si>
-  <si>
-    <t>shelves</t>
-  </si>
-  <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>people</t>
-  </si>
-  <si>
-    <t>toilet</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>amid</t>
-  </si>
-  <si>
-    <t>store</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>via</t>
-  </si>
-  <si>
-    <t>prices</t>
-  </si>
-  <si>
-    <t>us</t>
-  </si>
-  <si>
-    <t>stop</t>
-  </si>
-  <si>
-    <t>supermarket</t>
-  </si>
-  <si>
-    <t>grocery</t>
-  </si>
-  <si>
-    <t>co</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>corona</t>
-  </si>
-  <si>
-    <t>go</t>
-  </si>
-  <si>
-    <t>pan</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>gift</t>
-  </si>
-  <si>
-    <t>friend</t>
   </si>
   <si>
     <t>care</t>
@@ -3460,10 +3460,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="J1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3642,7 +3642,7 @@
         <v>2</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="K5">
         <v>0.8983050847457628</v>
@@ -3842,7 +3842,7 @@
         <v>2</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="K9">
         <v>0.8110236220472441</v>
@@ -3892,7 +3892,7 @@
         <v>4</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="K10">
         <v>0.8076923076923077</v>
@@ -3992,7 +3992,7 @@
         <v>3</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="K12">
         <v>0.7301587301587301</v>
@@ -4042,7 +4042,7 @@
         <v>3</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="K13">
         <v>0.7222222222222222</v>
@@ -4092,7 +4092,7 @@
         <v>3</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="K14">
         <v>0.7192982456140351</v>
@@ -4292,7 +4292,7 @@
         <v>3</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="K18">
         <v>0.6666666666666666</v>
@@ -4342,7 +4342,7 @@
         <v>4</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="K19">
         <v>0.6595744680851063</v>
@@ -4392,28 +4392,28 @@
         <v>3</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>132</v>
+        <v>169</v>
       </c>
       <c r="K20">
-        <v>0.6566523605150214</v>
+        <v>0.640625</v>
       </c>
       <c r="L20">
-        <v>153</v>
+        <v>41</v>
       </c>
       <c r="M20">
-        <v>159</v>
+        <v>42</v>
       </c>
       <c r="N20">
-        <v>0.96</v>
+        <v>0.98</v>
       </c>
       <c r="O20">
-        <v>0.04000000000000004</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P20" t="b">
         <v>1</v>
       </c>
       <c r="Q20">
-        <v>80</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -4442,28 +4442,28 @@
         <v>5</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>171</v>
+        <v>291</v>
       </c>
       <c r="K21">
-        <v>0.640625</v>
+        <v>0.6401673640167364</v>
       </c>
       <c r="L21">
-        <v>41</v>
+        <v>153</v>
       </c>
       <c r="M21">
-        <v>42</v>
+        <v>153</v>
       </c>
       <c r="N21">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O21">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>23</v>
+        <v>86</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -4542,7 +4542,7 @@
         <v>5</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="K23">
         <v>0.6</v>
@@ -4642,7 +4642,7 @@
         <v>5</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="K25">
         <v>0.5789473684210527</v>
@@ -4742,28 +4742,28 @@
         <v>12</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>135</v>
+        <v>294</v>
       </c>
       <c r="K27">
-        <v>0.5349544072948328</v>
+        <v>0.5176470588235295</v>
       </c>
       <c r="L27">
         <v>176</v>
       </c>
       <c r="M27">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="N27">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O27">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q27">
-        <v>153</v>
+        <v>164</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -4992,7 +4992,7 @@
         <v>6</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="K32">
         <v>0.4705882352941176</v>
@@ -5042,7 +5042,7 @@
         <v>4</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="K33">
         <v>0.4581151832460733</v>
@@ -5092,7 +5092,7 @@
         <v>10</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K34">
         <v>0.4551724137931035</v>
@@ -6642,7 +6642,7 @@
         <v>6</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K65">
         <v>0.303030303030303</v>
@@ -7042,7 +7042,7 @@
         <v>14</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="K73">
         <v>0.2857142857142857</v>
@@ -7542,7 +7542,7 @@
         <v>8</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="K83">
         <v>0.2592592592592592</v>
@@ -7592,7 +7592,7 @@
         <v>8</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="K84">
         <v>0.2586206896551724</v>
@@ -7692,7 +7692,7 @@
         <v>34</v>
       </c>
       <c r="J86" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="K86">
         <v>0.2547169811320755</v>
@@ -8142,7 +8142,7 @@
         <v>28</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="K95">
         <v>0.2394366197183098</v>
@@ -8192,7 +8192,7 @@
         <v>10</v>
       </c>
       <c r="J96" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="K96">
         <v>0.2361111111111111</v>
@@ -8342,7 +8342,7 @@
         <v>20</v>
       </c>
       <c r="J99" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="K99">
         <v>0.2341772151898734</v>
@@ -8442,7 +8442,7 @@
         <v>10</v>
       </c>
       <c r="J101" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="K101">
         <v>0.2333333333333333</v>
@@ -8492,7 +8492,7 @@
         <v>20</v>
       </c>
       <c r="J102" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="K102">
         <v>0.2307692307692308</v>
@@ -9392,7 +9392,7 @@
         <v>37</v>
       </c>
       <c r="J120" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K120">
         <v>0.2166666666666667</v>
@@ -9721,25 +9721,25 @@
         <v>132</v>
       </c>
       <c r="B127">
-        <v>0.06976744186046512</v>
+        <v>0.06896551724137931</v>
       </c>
       <c r="C127">
+        <v>2</v>
+      </c>
+      <c r="D127">
         <v>6</v>
       </c>
-      <c r="D127">
-        <v>159</v>
-      </c>
       <c r="E127">
-        <v>0.96</v>
+        <v>0.67</v>
       </c>
       <c r="F127">
-        <v>0.04000000000000004</v>
+        <v>0.33</v>
       </c>
       <c r="G127" t="b">
         <v>1</v>
       </c>
       <c r="H127">
-        <v>80</v>
+        <v>27</v>
       </c>
       <c r="J127" s="1" t="s">
         <v>116</v>
@@ -9777,13 +9777,13 @@
         <v>2</v>
       </c>
       <c r="D128">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E128">
-        <v>0.67</v>
+        <v>0.33</v>
       </c>
       <c r="F128">
-        <v>0.33</v>
+        <v>0.6699999999999999</v>
       </c>
       <c r="G128" t="b">
         <v>1</v>
@@ -9821,28 +9821,28 @@
         <v>134</v>
       </c>
       <c r="B129">
-        <v>0.06896551724137931</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="C129">
         <v>2</v>
       </c>
       <c r="D129">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E129">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="F129">
-        <v>0.6699999999999999</v>
+        <v>1</v>
       </c>
       <c r="G129" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H129">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J129" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="K129">
         <v>0.2037037037037037</v>
@@ -9871,25 +9871,25 @@
         <v>135</v>
       </c>
       <c r="B130">
-        <v>0.06707317073170732</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="C130">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D130">
-        <v>187</v>
+        <v>1</v>
       </c>
       <c r="E130">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F130">
-        <v>0.06000000000000005</v>
+        <v>1</v>
       </c>
       <c r="G130" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H130">
-        <v>153</v>
+        <v>14</v>
       </c>
       <c r="J130" s="1" t="s">
         <v>375</v>
@@ -9924,10 +9924,10 @@
         <v>0.06666666666666667</v>
       </c>
       <c r="C131">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D131">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E131">
         <v>0</v>
@@ -9939,7 +9939,7 @@
         <v>0</v>
       </c>
       <c r="H131">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="J131" s="1" t="s">
         <v>376</v>
@@ -9971,13 +9971,13 @@
         <v>137</v>
       </c>
       <c r="B132">
-        <v>0.06666666666666667</v>
+        <v>0.06493506493506493</v>
       </c>
       <c r="C132">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D132">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E132">
         <v>0</v>
@@ -9989,7 +9989,7 @@
         <v>0</v>
       </c>
       <c r="H132">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="J132" s="1" t="s">
         <v>377</v>
@@ -10021,7 +10021,7 @@
         <v>138</v>
       </c>
       <c r="B133">
-        <v>0.06666666666666667</v>
+        <v>0.0625</v>
       </c>
       <c r="C133">
         <v>1</v>
@@ -10039,7 +10039,7 @@
         <v>0</v>
       </c>
       <c r="H133">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J133" s="1" t="s">
         <v>378</v>
@@ -10071,13 +10071,13 @@
         <v>139</v>
       </c>
       <c r="B134">
-        <v>0.06493506493506493</v>
+        <v>0.0625</v>
       </c>
       <c r="C134">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D134">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E134">
         <v>0</v>
@@ -10089,7 +10089,7 @@
         <v>0</v>
       </c>
       <c r="H134">
-        <v>72</v>
+        <v>15</v>
       </c>
       <c r="J134" s="1" t="s">
         <v>119</v>
@@ -10127,16 +10127,16 @@
         <v>1</v>
       </c>
       <c r="D135">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E135">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F135">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G135" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H135">
         <v>15</v>
@@ -10221,25 +10221,25 @@
         <v>142</v>
       </c>
       <c r="B137">
-        <v>0.0625</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="C137">
         <v>1</v>
       </c>
       <c r="D137">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E137">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="F137">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G137" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H137">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J137" s="1" t="s">
         <v>381</v>
@@ -10271,25 +10271,25 @@
         <v>143</v>
       </c>
       <c r="B138">
-        <v>0.0625</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="C138">
         <v>1</v>
       </c>
       <c r="D138">
-        <v>1</v>
+        <v>42</v>
       </c>
       <c r="E138">
-        <v>0</v>
+        <v>0.98</v>
       </c>
       <c r="F138">
-        <v>1</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G138" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H138">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J138" s="1" t="s">
         <v>382</v>
@@ -10327,22 +10327,22 @@
         <v>1</v>
       </c>
       <c r="D139">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E139">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F139">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G139" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H139">
         <v>16</v>
       </c>
       <c r="J139" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="K139">
         <v>0.1964285714285714</v>
@@ -10377,16 +10377,16 @@
         <v>1</v>
       </c>
       <c r="D140">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="E140">
-        <v>0.98</v>
+        <v>0</v>
       </c>
       <c r="F140">
-        <v>0.02000000000000002</v>
+        <v>1</v>
       </c>
       <c r="G140" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H140">
         <v>16</v>
@@ -10427,22 +10427,22 @@
         <v>1</v>
       </c>
       <c r="D141">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E141">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F141">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G141" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H141">
         <v>16</v>
       </c>
       <c r="J141" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="K141">
         <v>0.1923076923076923</v>
@@ -10521,7 +10521,7 @@
         <v>148</v>
       </c>
       <c r="B143">
-        <v>0.05882352941176471</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="C143">
         <v>1</v>
@@ -10539,7 +10539,7 @@
         <v>0</v>
       </c>
       <c r="H143">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J143" s="1" t="s">
         <v>385</v>
@@ -10571,25 +10571,25 @@
         <v>149</v>
       </c>
       <c r="B144">
-        <v>0.05882352941176471</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="C144">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D144">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="E144">
-        <v>0</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F144">
-        <v>1</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G144" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H144">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="J144" s="1" t="s">
         <v>386</v>
@@ -10621,7 +10621,7 @@
         <v>150</v>
       </c>
       <c r="B145">
-        <v>0.05555555555555555</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="C145">
         <v>1</v>
@@ -10639,7 +10639,7 @@
         <v>0</v>
       </c>
       <c r="H145">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J145" s="1" t="s">
         <v>387</v>
@@ -10674,25 +10674,25 @@
         <v>0.05263157894736842</v>
       </c>
       <c r="C146">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D146">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="E146">
-        <v>0.9399999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="F146">
-        <v>0.06000000000000005</v>
+        <v>0.25</v>
       </c>
       <c r="G146" t="b">
         <v>1</v>
       </c>
       <c r="H146">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="J146" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="K146">
         <v>0.1875</v>
@@ -10777,16 +10777,16 @@
         <v>1</v>
       </c>
       <c r="D148">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E148">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="F148">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G148" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H148">
         <v>18</v>
@@ -10821,13 +10821,13 @@
         <v>154</v>
       </c>
       <c r="B149">
-        <v>0.05263157894736842</v>
+        <v>0.05128205128205128</v>
       </c>
       <c r="C149">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D149">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E149">
         <v>0</v>
@@ -10839,7 +10839,7 @@
         <v>0</v>
       </c>
       <c r="H149">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="J149" s="1" t="s">
         <v>390</v>
@@ -10871,25 +10871,25 @@
         <v>155</v>
       </c>
       <c r="B150">
-        <v>0.05263157894736842</v>
+        <v>0.05</v>
       </c>
       <c r="C150">
         <v>1</v>
       </c>
       <c r="D150">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E150">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="F150">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="G150" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H150">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J150" s="1" t="s">
         <v>391</v>
@@ -10921,25 +10921,25 @@
         <v>156</v>
       </c>
       <c r="B151">
-        <v>0.05128205128205128</v>
+        <v>0.05</v>
       </c>
       <c r="C151">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D151">
         <v>2</v>
       </c>
       <c r="E151">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F151">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G151" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H151">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="J151" s="1" t="s">
         <v>392</v>
@@ -10971,25 +10971,25 @@
         <v>157</v>
       </c>
       <c r="B152">
-        <v>0.05</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="C152">
         <v>1</v>
       </c>
       <c r="D152">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E152">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="F152">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="G152" t="b">
         <v>1</v>
       </c>
       <c r="H152">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J152" s="1" t="s">
         <v>393</v>
@@ -11021,28 +11021,28 @@
         <v>158</v>
       </c>
       <c r="B153">
-        <v>0.05</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="C153">
         <v>1</v>
       </c>
       <c r="D153">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E153">
-        <v>0.5</v>
+        <v>0.88</v>
       </c>
       <c r="F153">
-        <v>0.5</v>
+        <v>0.12</v>
       </c>
       <c r="G153" t="b">
         <v>1</v>
       </c>
       <c r="H153">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J153" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="K153">
         <v>0.1818181818181818</v>
@@ -11071,25 +11071,25 @@
         <v>159</v>
       </c>
       <c r="B154">
-        <v>0.04761904761904762</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="C154">
         <v>1</v>
       </c>
       <c r="D154">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E154">
-        <v>0.75</v>
+        <v>0.83</v>
       </c>
       <c r="F154">
-        <v>0.25</v>
+        <v>0.17</v>
       </c>
       <c r="G154" t="b">
         <v>1</v>
       </c>
       <c r="H154">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J154" s="1" t="s">
         <v>394</v>
@@ -11121,25 +11121,25 @@
         <v>160</v>
       </c>
       <c r="B155">
-        <v>0.04761904761904762</v>
+        <v>0.04444444444444445</v>
       </c>
       <c r="C155">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D155">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E155">
-        <v>0.88</v>
+        <v>0</v>
       </c>
       <c r="F155">
-        <v>0.12</v>
+        <v>1</v>
       </c>
       <c r="G155" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H155">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="J155" s="1" t="s">
         <v>395</v>
@@ -11171,25 +11171,25 @@
         <v>161</v>
       </c>
       <c r="B156">
-        <v>0.04545454545454546</v>
+        <v>0.04444444444444445</v>
       </c>
       <c r="C156">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D156">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E156">
-        <v>0.83</v>
+        <v>0.6</v>
       </c>
       <c r="F156">
-        <v>0.17</v>
+        <v>0.4</v>
       </c>
       <c r="G156" t="b">
         <v>1</v>
       </c>
       <c r="H156">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="J156" s="1" t="s">
         <v>396</v>
@@ -11221,13 +11221,13 @@
         <v>162</v>
       </c>
       <c r="B157">
-        <v>0.04444444444444445</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="C157">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D157">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E157">
         <v>0</v>
@@ -11239,7 +11239,7 @@
         <v>0</v>
       </c>
       <c r="H157">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="J157" s="1" t="s">
         <v>397</v>
@@ -11271,25 +11271,25 @@
         <v>163</v>
       </c>
       <c r="B158">
-        <v>0.04444444444444445</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="C158">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D158">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E158">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="F158">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="G158" t="b">
         <v>1</v>
       </c>
       <c r="H158">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="J158" s="1" t="s">
         <v>398</v>
@@ -11371,25 +11371,25 @@
         <v>165</v>
       </c>
       <c r="B160">
-        <v>0.04347826086956522</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="C160">
         <v>1</v>
       </c>
       <c r="D160">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E160">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="F160">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="G160" t="b">
         <v>1</v>
       </c>
       <c r="H160">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J160" s="1" t="s">
         <v>400</v>
@@ -11421,25 +11421,25 @@
         <v>166</v>
       </c>
       <c r="B161">
-        <v>0.04347826086956522</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="C161">
         <v>1</v>
       </c>
       <c r="D161">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E161">
-        <v>0</v>
+        <v>0.91</v>
       </c>
       <c r="F161">
-        <v>1</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G161" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H161">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J161" s="1" t="s">
         <v>401</v>
@@ -11477,16 +11477,16 @@
         <v>1</v>
       </c>
       <c r="D162">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E162">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="F162">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G162" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H162">
         <v>23</v>
@@ -11527,13 +11527,13 @@
         <v>1</v>
       </c>
       <c r="D163">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E163">
-        <v>0.91</v>
+        <v>0.88</v>
       </c>
       <c r="F163">
-        <v>0.08999999999999997</v>
+        <v>0.12</v>
       </c>
       <c r="G163" t="b">
         <v>1</v>
@@ -11577,16 +11577,16 @@
         <v>1</v>
       </c>
       <c r="D164">
-        <v>1</v>
+        <v>42</v>
       </c>
       <c r="E164">
-        <v>0</v>
+        <v>0.98</v>
       </c>
       <c r="F164">
-        <v>1</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G164" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H164">
         <v>23</v>
@@ -11621,28 +11621,28 @@
         <v>170</v>
       </c>
       <c r="B165">
-        <v>0.04166666666666666</v>
+        <v>0.04</v>
       </c>
       <c r="C165">
         <v>1</v>
       </c>
       <c r="D165">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E165">
-        <v>0.88</v>
+        <v>0</v>
       </c>
       <c r="F165">
-        <v>0.12</v>
+        <v>1</v>
       </c>
       <c r="G165" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H165">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J165" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="K165">
         <v>0.1739130434782609</v>
@@ -11671,25 +11671,25 @@
         <v>171</v>
       </c>
       <c r="B166">
-        <v>0.04166666666666666</v>
+        <v>0.04</v>
       </c>
       <c r="C166">
         <v>1</v>
       </c>
       <c r="D166">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="E166">
-        <v>0.98</v>
+        <v>0.67</v>
       </c>
       <c r="F166">
-        <v>0.02000000000000002</v>
+        <v>0.33</v>
       </c>
       <c r="G166" t="b">
         <v>1</v>
       </c>
       <c r="H166">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J166" s="1" t="s">
         <v>405</v>
@@ -11727,16 +11727,16 @@
         <v>1</v>
       </c>
       <c r="D167">
-        <v>1</v>
+        <v>104</v>
       </c>
       <c r="E167">
-        <v>0</v>
+        <v>0.99</v>
       </c>
       <c r="F167">
-        <v>1</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G167" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H167">
         <v>24</v>
@@ -11777,16 +11777,16 @@
         <v>1</v>
       </c>
       <c r="D168">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E168">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="F168">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G168" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H168">
         <v>24</v>
@@ -11827,16 +11827,16 @@
         <v>1</v>
       </c>
       <c r="D169">
-        <v>104</v>
+        <v>1</v>
       </c>
       <c r="E169">
-        <v>0.99</v>
+        <v>0</v>
       </c>
       <c r="F169">
-        <v>0.01000000000000001</v>
+        <v>1</v>
       </c>
       <c r="G169" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H169">
         <v>24</v>
@@ -11871,25 +11871,25 @@
         <v>175</v>
       </c>
       <c r="B170">
-        <v>0.04</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="C170">
         <v>1</v>
       </c>
       <c r="D170">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E170">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F170">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G170" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H170">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J170" s="1" t="s">
         <v>104</v>
@@ -11921,25 +11921,25 @@
         <v>176</v>
       </c>
       <c r="B171">
-        <v>0.04</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="C171">
         <v>1</v>
       </c>
       <c r="D171">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E171">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F171">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G171" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H171">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J171" s="1" t="s">
         <v>409</v>
@@ -11971,25 +11971,25 @@
         <v>177</v>
       </c>
       <c r="B172">
-        <v>0.03846153846153846</v>
+        <v>0.0375</v>
       </c>
       <c r="C172">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D172">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E172">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F172">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G172" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H172">
-        <v>25</v>
+        <v>77</v>
       </c>
       <c r="J172" s="1" t="s">
         <v>410</v>
@@ -12021,25 +12021,25 @@
         <v>178</v>
       </c>
       <c r="B173">
-        <v>0.03846153846153846</v>
+        <v>0.03703703703703703</v>
       </c>
       <c r="C173">
         <v>1</v>
       </c>
       <c r="D173">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E173">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="F173">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G173" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H173">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J173" s="1" t="s">
         <v>411</v>
@@ -12071,13 +12071,13 @@
         <v>179</v>
       </c>
       <c r="B174">
-        <v>0.0375</v>
+        <v>0.03703703703703703</v>
       </c>
       <c r="C174">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D174">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E174">
         <v>0</v>
@@ -12089,7 +12089,7 @@
         <v>0</v>
       </c>
       <c r="H174">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="J174" s="1" t="s">
         <v>412</v>
@@ -12221,25 +12221,25 @@
         <v>182</v>
       </c>
       <c r="B177">
-        <v>0.03703703703703703</v>
+        <v>0.03571428571428571</v>
       </c>
       <c r="C177">
         <v>1</v>
       </c>
       <c r="D177">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E177">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F177">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G177" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H177">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J177" s="1" t="s">
         <v>415</v>
@@ -12271,7 +12271,7 @@
         <v>183</v>
       </c>
       <c r="B178">
-        <v>0.03703703703703703</v>
+        <v>0.03448275862068965</v>
       </c>
       <c r="C178">
         <v>1</v>
@@ -12289,7 +12289,7 @@
         <v>0</v>
       </c>
       <c r="H178">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J178" s="1" t="s">
         <v>416</v>
@@ -12321,25 +12321,25 @@
         <v>184</v>
       </c>
       <c r="B179">
-        <v>0.03571428571428571</v>
+        <v>0.03448275862068965</v>
       </c>
       <c r="C179">
         <v>1</v>
       </c>
       <c r="D179">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E179">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F179">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G179" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H179">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J179" s="1" t="s">
         <v>417</v>
@@ -12371,7 +12371,7 @@
         <v>185</v>
       </c>
       <c r="B180">
-        <v>0.03448275862068965</v>
+        <v>0.03333333333333333</v>
       </c>
       <c r="C180">
         <v>1</v>
@@ -12389,7 +12389,7 @@
         <v>0</v>
       </c>
       <c r="H180">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J180" s="1" t="s">
         <v>418</v>
@@ -12421,25 +12421,25 @@
         <v>186</v>
       </c>
       <c r="B181">
-        <v>0.03448275862068965</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="C181">
         <v>1</v>
       </c>
       <c r="D181">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E181">
-        <v>0</v>
+        <v>0.92</v>
       </c>
       <c r="F181">
-        <v>1</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G181" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H181">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="J181" s="1" t="s">
         <v>419</v>
@@ -12471,25 +12471,25 @@
         <v>187</v>
       </c>
       <c r="B182">
-        <v>0.03333333333333333</v>
+        <v>0.03067484662576687</v>
       </c>
       <c r="C182">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D182">
-        <v>1</v>
+        <v>137</v>
       </c>
       <c r="E182">
-        <v>0</v>
+        <v>0.96</v>
       </c>
       <c r="F182">
-        <v>1</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G182" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H182">
-        <v>29</v>
+        <v>158</v>
       </c>
       <c r="J182" s="1" t="s">
         <v>420</v>
@@ -12521,25 +12521,25 @@
         <v>188</v>
       </c>
       <c r="B183">
-        <v>0.03225806451612903</v>
+        <v>0.02941176470588235</v>
       </c>
       <c r="C183">
         <v>1</v>
       </c>
       <c r="D183">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="E183">
-        <v>0.92</v>
+        <v>0</v>
       </c>
       <c r="F183">
-        <v>0.07999999999999996</v>
+        <v>1</v>
       </c>
       <c r="G183" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H183">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="J183" s="1" t="s">
         <v>421</v>
@@ -12571,25 +12571,25 @@
         <v>189</v>
       </c>
       <c r="B184">
-        <v>0.03067484662576687</v>
+        <v>0.02912621359223301</v>
       </c>
       <c r="C184">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D184">
-        <v>137</v>
+        <v>19</v>
       </c>
       <c r="E184">
-        <v>0.96</v>
+        <v>0.84</v>
       </c>
       <c r="F184">
-        <v>0.04000000000000004</v>
+        <v>0.16</v>
       </c>
       <c r="G184" t="b">
         <v>1</v>
       </c>
       <c r="H184">
-        <v>158</v>
+        <v>100</v>
       </c>
       <c r="J184" s="1" t="s">
         <v>422</v>
@@ -12621,25 +12621,25 @@
         <v>190</v>
       </c>
       <c r="B185">
-        <v>0.02941176470588235</v>
+        <v>0.02898550724637681</v>
       </c>
       <c r="C185">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D185">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E185">
-        <v>0</v>
+        <v>0.78</v>
       </c>
       <c r="F185">
-        <v>1</v>
+        <v>0.22</v>
       </c>
       <c r="G185" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H185">
-        <v>33</v>
+        <v>67</v>
       </c>
       <c r="J185" s="1" t="s">
         <v>423</v>
@@ -12671,25 +12671,25 @@
         <v>191</v>
       </c>
       <c r="B186">
-        <v>0.02912621359223301</v>
+        <v>0.02857142857142857</v>
       </c>
       <c r="C186">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D186">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="E186">
-        <v>0.84</v>
+        <v>0</v>
       </c>
       <c r="F186">
-        <v>0.16</v>
+        <v>1</v>
       </c>
       <c r="G186" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H186">
-        <v>100</v>
+        <v>34</v>
       </c>
       <c r="J186" s="1" t="s">
         <v>424</v>
@@ -12721,25 +12721,25 @@
         <v>192</v>
       </c>
       <c r="B187">
-        <v>0.02898550724637681</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="C187">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D187">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E187">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="F187">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="G187" t="b">
         <v>1</v>
       </c>
       <c r="H187">
-        <v>67</v>
+        <v>35</v>
       </c>
       <c r="J187" s="1" t="s">
         <v>425</v>
@@ -12771,25 +12771,25 @@
         <v>193</v>
       </c>
       <c r="B188">
-        <v>0.02857142857142857</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="C188">
         <v>1</v>
       </c>
       <c r="D188">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E188">
-        <v>0</v>
+        <v>0.86</v>
       </c>
       <c r="F188">
-        <v>1</v>
+        <v>0.14</v>
       </c>
       <c r="G188" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H188">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J188" s="1" t="s">
         <v>426</v>
@@ -12821,25 +12821,25 @@
         <v>194</v>
       </c>
       <c r="B189">
-        <v>0.02777777777777778</v>
+        <v>0.02702702702702703</v>
       </c>
       <c r="C189">
         <v>1</v>
       </c>
       <c r="D189">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E189">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="F189">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="G189" t="b">
         <v>1</v>
       </c>
       <c r="H189">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J189" s="1" t="s">
         <v>427</v>
@@ -12871,25 +12871,25 @@
         <v>195</v>
       </c>
       <c r="B190">
-        <v>0.02777777777777778</v>
+        <v>0.02702702702702703</v>
       </c>
       <c r="C190">
         <v>1</v>
       </c>
       <c r="D190">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E190">
-        <v>0.86</v>
+        <v>0</v>
       </c>
       <c r="F190">
-        <v>0.14</v>
+        <v>1</v>
       </c>
       <c r="G190" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H190">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J190" s="1" t="s">
         <v>428</v>
@@ -12921,25 +12921,25 @@
         <v>196</v>
       </c>
       <c r="B191">
-        <v>0.02702702702702703</v>
+        <v>0.02684563758389262</v>
       </c>
       <c r="C191">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D191">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E191">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="F191">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G191" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H191">
-        <v>36</v>
+        <v>145</v>
       </c>
       <c r="J191" s="1" t="s">
         <v>429</v>
@@ -12971,25 +12971,25 @@
         <v>197</v>
       </c>
       <c r="B192">
-        <v>0.02702702702702703</v>
+        <v>0.02631578947368421</v>
       </c>
       <c r="C192">
         <v>1</v>
       </c>
       <c r="D192">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E192">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F192">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G192" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H192">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J192" s="1" t="s">
         <v>430</v>
@@ -13021,13 +13021,13 @@
         <v>198</v>
       </c>
       <c r="B193">
-        <v>0.02684563758389262</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="C193">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D193">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E193">
         <v>0</v>
@@ -13039,7 +13039,7 @@
         <v>0</v>
       </c>
       <c r="H193">
-        <v>145</v>
+        <v>38</v>
       </c>
       <c r="J193" s="1" t="s">
         <v>431</v>
@@ -13071,25 +13071,25 @@
         <v>199</v>
       </c>
       <c r="B194">
-        <v>0.02631578947368421</v>
+        <v>0.02521008403361345</v>
       </c>
       <c r="C194">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D194">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="E194">
-        <v>0.67</v>
+        <v>0.86</v>
       </c>
       <c r="F194">
-        <v>0.33</v>
+        <v>0.14</v>
       </c>
       <c r="G194" t="b">
         <v>1</v>
       </c>
       <c r="H194">
-        <v>37</v>
+        <v>116</v>
       </c>
       <c r="J194" s="1" t="s">
         <v>432</v>
@@ -13121,25 +13121,25 @@
         <v>200</v>
       </c>
       <c r="B195">
-        <v>0.02564102564102564</v>
+        <v>0.025</v>
       </c>
       <c r="C195">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D195">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E195">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F195">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G195" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H195">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="J195" s="1" t="s">
         <v>433</v>
@@ -13171,25 +13171,25 @@
         <v>201</v>
       </c>
       <c r="B196">
-        <v>0.02521008403361345</v>
+        <v>0.02409638554216868</v>
       </c>
       <c r="C196">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D196">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E196">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="F196">
-        <v>0.14</v>
+        <v>0.12</v>
       </c>
       <c r="G196" t="b">
         <v>1</v>
       </c>
       <c r="H196">
-        <v>116</v>
+        <v>81</v>
       </c>
       <c r="J196" s="1" t="s">
         <v>434</v>
@@ -13221,25 +13221,25 @@
         <v>202</v>
       </c>
       <c r="B197">
-        <v>0.025</v>
+        <v>0.02380952380952381</v>
       </c>
       <c r="C197">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D197">
         <v>4</v>
       </c>
       <c r="E197">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="F197">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="G197" t="b">
         <v>1</v>
       </c>
       <c r="H197">
-        <v>78</v>
+        <v>41</v>
       </c>
       <c r="J197" s="1" t="s">
         <v>435</v>
@@ -13271,25 +13271,25 @@
         <v>203</v>
       </c>
       <c r="B198">
-        <v>0.02409638554216868</v>
+        <v>0.02380952380952381</v>
       </c>
       <c r="C198">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D198">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="E198">
-        <v>0.88</v>
+        <v>0.75</v>
       </c>
       <c r="F198">
-        <v>0.12</v>
+        <v>0.25</v>
       </c>
       <c r="G198" t="b">
         <v>1</v>
       </c>
       <c r="H198">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="J198" s="1" t="s">
         <v>436</v>
@@ -13327,13 +13327,13 @@
         <v>1</v>
       </c>
       <c r="D199">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E199">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="F199">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="G199" t="b">
         <v>1</v>
@@ -13371,25 +13371,25 @@
         <v>205</v>
       </c>
       <c r="B200">
-        <v>0.02380952380952381</v>
+        <v>0.02352941176470588</v>
       </c>
       <c r="C200">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D200">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E200">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="F200">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="G200" t="b">
         <v>1</v>
       </c>
       <c r="H200">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="J200" s="1" t="s">
         <v>438</v>
@@ -13421,25 +13421,25 @@
         <v>206</v>
       </c>
       <c r="B201">
-        <v>0.02380952380952381</v>
+        <v>0.02325581395348837</v>
       </c>
       <c r="C201">
         <v>1</v>
       </c>
       <c r="D201">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E201">
-        <v>0.5</v>
+        <v>0.83</v>
       </c>
       <c r="F201">
-        <v>0.5</v>
+        <v>0.17</v>
       </c>
       <c r="G201" t="b">
         <v>1</v>
       </c>
       <c r="H201">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J201" s="1" t="s">
         <v>439</v>
@@ -13471,25 +13471,25 @@
         <v>207</v>
       </c>
       <c r="B202">
-        <v>0.02352941176470588</v>
+        <v>0.02272727272727273</v>
       </c>
       <c r="C202">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D202">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E202">
-        <v>0.78</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F202">
-        <v>0.22</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G202" t="b">
         <v>1</v>
       </c>
       <c r="H202">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="J202" s="1" t="s">
         <v>440</v>
@@ -13521,28 +13521,28 @@
         <v>208</v>
       </c>
       <c r="B203">
-        <v>0.02325581395348837</v>
+        <v>0.02222222222222222</v>
       </c>
       <c r="C203">
         <v>1</v>
       </c>
       <c r="D203">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E203">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="F203">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="G203" t="b">
         <v>1</v>
       </c>
       <c r="H203">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J203" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="K203">
         <v>0.1590909090909091</v>
@@ -13571,28 +13571,28 @@
         <v>209</v>
       </c>
       <c r="B204">
-        <v>0.02272727272727273</v>
+        <v>0.02173913043478261</v>
       </c>
       <c r="C204">
         <v>1</v>
       </c>
       <c r="D204">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E204">
-        <v>0.9399999999999999</v>
+        <v>0.92</v>
       </c>
       <c r="F204">
-        <v>0.06000000000000005</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G204" t="b">
         <v>1</v>
       </c>
       <c r="H204">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J204" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="K204">
         <v>0.1582278481012658</v>
@@ -13621,25 +13621,25 @@
         <v>210</v>
       </c>
       <c r="B205">
-        <v>0.02222222222222222</v>
+        <v>0.02127659574468085</v>
       </c>
       <c r="C205">
         <v>1</v>
       </c>
       <c r="D205">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E205">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="F205">
-        <v>0.14</v>
+        <v>0.25</v>
       </c>
       <c r="G205" t="b">
         <v>1</v>
       </c>
       <c r="H205">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J205" s="1" t="s">
         <v>441</v>
@@ -13671,25 +13671,25 @@
         <v>211</v>
       </c>
       <c r="B206">
-        <v>0.02173913043478261</v>
+        <v>0.02083333333333333</v>
       </c>
       <c r="C206">
         <v>1</v>
       </c>
       <c r="D206">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E206">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="F206">
-        <v>0.07999999999999996</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G206" t="b">
         <v>1</v>
       </c>
       <c r="H206">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J206" s="1" t="s">
         <v>442</v>
@@ -13721,25 +13721,25 @@
         <v>212</v>
       </c>
       <c r="B207">
-        <v>0.02127659574468085</v>
+        <v>0.02083333333333333</v>
       </c>
       <c r="C207">
         <v>1</v>
       </c>
       <c r="D207">
-        <v>4</v>
+        <v>95</v>
       </c>
       <c r="E207">
-        <v>0.75</v>
+        <v>0.99</v>
       </c>
       <c r="F207">
-        <v>0.25</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G207" t="b">
         <v>1</v>
       </c>
       <c r="H207">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J207" s="1" t="s">
         <v>443</v>
@@ -13771,25 +13771,25 @@
         <v>213</v>
       </c>
       <c r="B208">
-        <v>0.02083333333333333</v>
+        <v>0.02040816326530612</v>
       </c>
       <c r="C208">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D208">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E208">
-        <v>0.93</v>
+        <v>0.85</v>
       </c>
       <c r="F208">
-        <v>0.06999999999999995</v>
+        <v>0.15</v>
       </c>
       <c r="G208" t="b">
         <v>1</v>
       </c>
       <c r="H208">
-        <v>47</v>
+        <v>96</v>
       </c>
       <c r="J208" s="1" t="s">
         <v>444</v>
@@ -13821,25 +13821,25 @@
         <v>214</v>
       </c>
       <c r="B209">
-        <v>0.02083333333333333</v>
+        <v>0.02040816326530612</v>
       </c>
       <c r="C209">
         <v>1</v>
       </c>
       <c r="D209">
-        <v>95</v>
+        <v>9</v>
       </c>
       <c r="E209">
-        <v>0.99</v>
+        <v>0.89</v>
       </c>
       <c r="F209">
-        <v>0.01000000000000001</v>
+        <v>0.11</v>
       </c>
       <c r="G209" t="b">
         <v>1</v>
       </c>
       <c r="H209">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J209" s="1" t="s">
         <v>445</v>
@@ -13871,25 +13871,25 @@
         <v>215</v>
       </c>
       <c r="B210">
-        <v>0.02040816326530612</v>
+        <v>0.0202020202020202</v>
       </c>
       <c r="C210">
         <v>2</v>
       </c>
       <c r="D210">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E210">
-        <v>0.85</v>
+        <v>0.87</v>
       </c>
       <c r="F210">
-        <v>0.15</v>
+        <v>0.13</v>
       </c>
       <c r="G210" t="b">
         <v>1</v>
       </c>
       <c r="H210">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="J210" s="1" t="s">
         <v>111</v>
@@ -13921,25 +13921,25 @@
         <v>216</v>
       </c>
       <c r="B211">
-        <v>0.02040816326530612</v>
+        <v>0.02</v>
       </c>
       <c r="C211">
         <v>1</v>
       </c>
       <c r="D211">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E211">
-        <v>0.89</v>
+        <v>0.75</v>
       </c>
       <c r="F211">
-        <v>0.11</v>
+        <v>0.25</v>
       </c>
       <c r="G211" t="b">
         <v>1</v>
       </c>
       <c r="H211">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J211" s="1" t="s">
         <v>446</v>
@@ -13971,25 +13971,25 @@
         <v>217</v>
       </c>
       <c r="B212">
-        <v>0.0202020202020202</v>
+        <v>0.02</v>
       </c>
       <c r="C212">
         <v>2</v>
       </c>
       <c r="D212">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E212">
-        <v>0.87</v>
+        <v>0.86</v>
       </c>
       <c r="F212">
-        <v>0.13</v>
+        <v>0.14</v>
       </c>
       <c r="G212" t="b">
         <v>1</v>
       </c>
       <c r="H212">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J212" s="1" t="s">
         <v>447</v>
@@ -14027,13 +14027,13 @@
         <v>1</v>
       </c>
       <c r="D213">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E213">
-        <v>0.75</v>
+        <v>0.86</v>
       </c>
       <c r="F213">
-        <v>0.25</v>
+        <v>0.14</v>
       </c>
       <c r="G213" t="b">
         <v>1</v>
@@ -14071,13 +14071,13 @@
         <v>219</v>
       </c>
       <c r="B214">
-        <v>0.02</v>
+        <v>0.01923076923076923</v>
       </c>
       <c r="C214">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D214">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E214">
         <v>0.86</v>
@@ -14089,7 +14089,7 @@
         <v>1</v>
       </c>
       <c r="H214">
-        <v>98</v>
+        <v>51</v>
       </c>
       <c r="J214" s="1" t="s">
         <v>448</v>
@@ -14121,25 +14121,25 @@
         <v>220</v>
       </c>
       <c r="B215">
-        <v>0.02</v>
+        <v>0.01863354037267081</v>
       </c>
       <c r="C215">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D215">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="E215">
-        <v>0.86</v>
+        <v>0.95</v>
       </c>
       <c r="F215">
-        <v>0.14</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G215" t="b">
         <v>1</v>
       </c>
       <c r="H215">
-        <v>49</v>
+        <v>158</v>
       </c>
       <c r="J215" s="1" t="s">
         <v>449</v>
@@ -14171,25 +14171,25 @@
         <v>221</v>
       </c>
       <c r="B216">
-        <v>0.01923076923076923</v>
+        <v>0.01851851851851852</v>
       </c>
       <c r="C216">
         <v>1</v>
       </c>
       <c r="D216">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E216">
-        <v>0.86</v>
+        <v>0.67</v>
       </c>
       <c r="F216">
-        <v>0.14</v>
+        <v>0.33</v>
       </c>
       <c r="G216" t="b">
         <v>1</v>
       </c>
       <c r="H216">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J216" s="1" t="s">
         <v>450</v>
@@ -14221,25 +14221,25 @@
         <v>222</v>
       </c>
       <c r="B217">
-        <v>0.01863354037267081</v>
+        <v>0.01818181818181818</v>
       </c>
       <c r="C217">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D217">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="E217">
-        <v>0.95</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F217">
-        <v>0.05000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G217" t="b">
         <v>1</v>
       </c>
       <c r="H217">
-        <v>158</v>
+        <v>54</v>
       </c>
       <c r="J217" s="1" t="s">
         <v>451</v>
@@ -14271,25 +14271,25 @@
         <v>223</v>
       </c>
       <c r="B218">
-        <v>0.01851851851851852</v>
+        <v>0.01807228915662651</v>
       </c>
       <c r="C218">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D218">
         <v>3</v>
       </c>
       <c r="E218">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="F218">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G218" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H218">
-        <v>53</v>
+        <v>163</v>
       </c>
       <c r="J218" s="1" t="s">
         <v>452</v>
@@ -14321,7 +14321,7 @@
         <v>224</v>
       </c>
       <c r="B219">
-        <v>0.01818181818181818</v>
+        <v>0.01785714285714286</v>
       </c>
       <c r="C219">
         <v>1</v>
@@ -14339,7 +14339,7 @@
         <v>1</v>
       </c>
       <c r="H219">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J219" s="1" t="s">
         <v>453</v>
@@ -14371,25 +14371,25 @@
         <v>225</v>
       </c>
       <c r="B220">
-        <v>0.01807228915662651</v>
+        <v>0.01785714285714286</v>
       </c>
       <c r="C220">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D220">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E220">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F220">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="G220" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H220">
-        <v>163</v>
+        <v>55</v>
       </c>
       <c r="J220" s="1" t="s">
         <v>454</v>
@@ -14421,28 +14421,28 @@
         <v>226</v>
       </c>
       <c r="B221">
-        <v>0.01785714285714286</v>
+        <v>0.01769911504424779</v>
       </c>
       <c r="C221">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D221">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E221">
-        <v>0.9399999999999999</v>
+        <v>0.91</v>
       </c>
       <c r="F221">
-        <v>0.06000000000000005</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G221" t="b">
         <v>1</v>
       </c>
       <c r="H221">
-        <v>55</v>
+        <v>111</v>
       </c>
       <c r="J221" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="K221">
         <v>0.1473684210526316</v>
@@ -14471,28 +14471,28 @@
         <v>227</v>
       </c>
       <c r="B222">
-        <v>0.01785714285714286</v>
+        <v>0.01754385964912281</v>
       </c>
       <c r="C222">
         <v>1</v>
       </c>
       <c r="D222">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E222">
-        <v>0.75</v>
+        <v>0.86</v>
       </c>
       <c r="F222">
-        <v>0.25</v>
+        <v>0.14</v>
       </c>
       <c r="G222" t="b">
         <v>1</v>
       </c>
       <c r="H222">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J222" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="K222">
         <v>0.1463414634146341</v>
@@ -14521,25 +14521,25 @@
         <v>228</v>
       </c>
       <c r="B223">
-        <v>0.01769911504424779</v>
+        <v>0.01754385964912281</v>
       </c>
       <c r="C223">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D223">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="E223">
-        <v>0.91</v>
+        <v>0</v>
       </c>
       <c r="F223">
-        <v>0.08999999999999997</v>
+        <v>1</v>
       </c>
       <c r="G223" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H223">
-        <v>111</v>
+        <v>56</v>
       </c>
       <c r="J223" s="1" t="s">
         <v>455</v>
@@ -14571,25 +14571,25 @@
         <v>229</v>
       </c>
       <c r="B224">
-        <v>0.01754385964912281</v>
+        <v>0.01724137931034483</v>
       </c>
       <c r="C224">
         <v>1</v>
       </c>
       <c r="D224">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E224">
-        <v>0.86</v>
+        <v>0.83</v>
       </c>
       <c r="F224">
-        <v>0.14</v>
+        <v>0.17</v>
       </c>
       <c r="G224" t="b">
         <v>1</v>
       </c>
       <c r="H224">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J224" s="1" t="s">
         <v>456</v>
@@ -14621,28 +14621,28 @@
         <v>230</v>
       </c>
       <c r="B225">
-        <v>0.01754385964912281</v>
+        <v>0.01724137931034483</v>
       </c>
       <c r="C225">
         <v>1</v>
       </c>
       <c r="D225">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E225">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="F225">
-        <v>1</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G225" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H225">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J225" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="K225">
         <v>0.1428571428571428</v>
@@ -14671,25 +14671,25 @@
         <v>231</v>
       </c>
       <c r="B226">
-        <v>0.01724137931034483</v>
+        <v>0.01639344262295082</v>
       </c>
       <c r="C226">
         <v>1</v>
       </c>
       <c r="D226">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E226">
-        <v>0.83</v>
+        <v>0.67</v>
       </c>
       <c r="F226">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="G226" t="b">
         <v>1</v>
       </c>
       <c r="H226">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="J226" s="1" t="s">
         <v>457</v>
@@ -14721,25 +14721,25 @@
         <v>232</v>
       </c>
       <c r="B227">
-        <v>0.01724137931034483</v>
+        <v>0.01639344262295082</v>
       </c>
       <c r="C227">
         <v>1</v>
       </c>
       <c r="D227">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E227">
-        <v>0.9</v>
+        <v>0.83</v>
       </c>
       <c r="F227">
-        <v>0.09999999999999998</v>
+        <v>0.17</v>
       </c>
       <c r="G227" t="b">
         <v>1</v>
       </c>
       <c r="H227">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="J227" s="1" t="s">
         <v>458</v>
@@ -14771,25 +14771,25 @@
         <v>233</v>
       </c>
       <c r="B228">
-        <v>0.01639344262295082</v>
+        <v>0.01612903225806452</v>
       </c>
       <c r="C228">
         <v>1</v>
       </c>
       <c r="D228">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E228">
-        <v>0.67</v>
+        <v>0.91</v>
       </c>
       <c r="F228">
-        <v>0.33</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G228" t="b">
         <v>1</v>
       </c>
       <c r="H228">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J228" s="1" t="s">
         <v>459</v>
@@ -14821,25 +14821,25 @@
         <v>234</v>
       </c>
       <c r="B229">
-        <v>0.01639344262295082</v>
+        <v>0.01587301587301587</v>
       </c>
       <c r="C229">
         <v>1</v>
       </c>
       <c r="D229">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E229">
-        <v>0.83</v>
+        <v>0.75</v>
       </c>
       <c r="F229">
-        <v>0.17</v>
+        <v>0.25</v>
       </c>
       <c r="G229" t="b">
         <v>1</v>
       </c>
       <c r="H229">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="J229" s="1" t="s">
         <v>460</v>
@@ -14871,25 +14871,25 @@
         <v>235</v>
       </c>
       <c r="B230">
-        <v>0.01612903225806452</v>
+        <v>0.015625</v>
       </c>
       <c r="C230">
         <v>1</v>
       </c>
       <c r="D230">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E230">
-        <v>0.91</v>
+        <v>0.93</v>
       </c>
       <c r="F230">
-        <v>0.08999999999999997</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G230" t="b">
         <v>1</v>
       </c>
       <c r="H230">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="J230" s="1" t="s">
         <v>461</v>
@@ -14921,25 +14921,25 @@
         <v>236</v>
       </c>
       <c r="B231">
-        <v>0.01587301587301587</v>
+        <v>0.01538461538461539</v>
       </c>
       <c r="C231">
         <v>1</v>
       </c>
       <c r="D231">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E231">
-        <v>0.75</v>
+        <v>0.83</v>
       </c>
       <c r="F231">
-        <v>0.25</v>
+        <v>0.17</v>
       </c>
       <c r="G231" t="b">
         <v>1</v>
       </c>
       <c r="H231">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="J231" s="1" t="s">
         <v>462</v>
@@ -14971,25 +14971,25 @@
         <v>237</v>
       </c>
       <c r="B232">
-        <v>0.015625</v>
+        <v>0.01428571428571429</v>
       </c>
       <c r="C232">
         <v>1</v>
       </c>
       <c r="D232">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E232">
-        <v>0.93</v>
+        <v>0.9</v>
       </c>
       <c r="F232">
-        <v>0.06999999999999995</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G232" t="b">
         <v>1</v>
       </c>
       <c r="H232">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="J232" s="1" t="s">
         <v>463</v>
@@ -15021,25 +15021,25 @@
         <v>238</v>
       </c>
       <c r="B233">
-        <v>0.01538461538461539</v>
+        <v>0.01351351351351351</v>
       </c>
       <c r="C233">
         <v>1</v>
       </c>
       <c r="D233">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E233">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="F233">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="G233" t="b">
         <v>1</v>
       </c>
       <c r="H233">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="J233" s="1" t="s">
         <v>464</v>
@@ -15071,25 +15071,25 @@
         <v>239</v>
       </c>
       <c r="B234">
-        <v>0.01428571428571429</v>
+        <v>0.0131578947368421</v>
       </c>
       <c r="C234">
         <v>1</v>
       </c>
       <c r="D234">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E234">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="F234">
-        <v>0.09999999999999998</v>
+        <v>1</v>
       </c>
       <c r="G234" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H234">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="J234" s="1" t="s">
         <v>465</v>
@@ -15121,25 +15121,25 @@
         <v>240</v>
       </c>
       <c r="B235">
-        <v>0.01351351351351351</v>
+        <v>0.01277955271565495</v>
       </c>
       <c r="C235">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D235">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="E235">
-        <v>0.86</v>
+        <v>0.9</v>
       </c>
       <c r="F235">
-        <v>0.14</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G235" t="b">
         <v>1</v>
       </c>
       <c r="H235">
-        <v>73</v>
+        <v>309</v>
       </c>
       <c r="J235" s="1" t="s">
         <v>466</v>
@@ -15171,25 +15171,25 @@
         <v>241</v>
       </c>
       <c r="B236">
-        <v>0.0131578947368421</v>
+        <v>0.01265822784810127</v>
       </c>
       <c r="C236">
         <v>1</v>
       </c>
       <c r="D236">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="E236">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="F236">
-        <v>1</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G236" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H236">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="J236" s="1" t="s">
         <v>467</v>
@@ -15221,25 +15221,25 @@
         <v>242</v>
       </c>
       <c r="B237">
-        <v>0.01277955271565495</v>
+        <v>0.0124223602484472</v>
       </c>
       <c r="C237">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D237">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="E237">
-        <v>0.9</v>
+        <v>0.92</v>
       </c>
       <c r="F237">
-        <v>0.09999999999999998</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G237" t="b">
         <v>1</v>
       </c>
       <c r="H237">
-        <v>309</v>
+        <v>159</v>
       </c>
       <c r="J237" s="1" t="s">
         <v>468</v>
@@ -15271,25 +15271,25 @@
         <v>243</v>
       </c>
       <c r="B238">
-        <v>0.01265822784810127</v>
+        <v>0.01226993865030675</v>
       </c>
       <c r="C238">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D238">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E238">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="F238">
-        <v>0.05000000000000004</v>
+        <v>0.2</v>
       </c>
       <c r="G238" t="b">
         <v>1</v>
       </c>
       <c r="H238">
-        <v>78</v>
+        <v>161</v>
       </c>
       <c r="J238" s="1" t="s">
         <v>469</v>
@@ -15321,25 +15321,25 @@
         <v>244</v>
       </c>
       <c r="B239">
-        <v>0.0124223602484472</v>
+        <v>0.01204819277108434</v>
       </c>
       <c r="C239">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D239">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E239">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="F239">
-        <v>0.07999999999999996</v>
+        <v>0.14</v>
       </c>
       <c r="G239" t="b">
         <v>1</v>
       </c>
       <c r="H239">
-        <v>159</v>
+        <v>82</v>
       </c>
       <c r="J239" s="1" t="s">
         <v>470</v>
@@ -15371,25 +15371,25 @@
         <v>245</v>
       </c>
       <c r="B240">
-        <v>0.01226993865030675</v>
+        <v>0.0119047619047619</v>
       </c>
       <c r="C240">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D240">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E240">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="F240">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="G240" t="b">
         <v>1</v>
       </c>
       <c r="H240">
-        <v>161</v>
+        <v>83</v>
       </c>
       <c r="J240" s="1" t="s">
         <v>471</v>
@@ -15421,25 +15421,25 @@
         <v>246</v>
       </c>
       <c r="B241">
-        <v>0.01204819277108434</v>
+        <v>0.01123595505617977</v>
       </c>
       <c r="C241">
         <v>1</v>
       </c>
       <c r="D241">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E241">
-        <v>0.86</v>
+        <v>0.91</v>
       </c>
       <c r="F241">
-        <v>0.14</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G241" t="b">
         <v>1</v>
       </c>
       <c r="H241">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="J241" s="1" t="s">
         <v>472</v>
@@ -15471,25 +15471,25 @@
         <v>247</v>
       </c>
       <c r="B242">
-        <v>0.0119047619047619</v>
+        <v>0.01066098081023454</v>
       </c>
       <c r="C242">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D242">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="E242">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="F242">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="G242" t="b">
         <v>1</v>
       </c>
       <c r="H242">
-        <v>83</v>
+        <v>928</v>
       </c>
       <c r="J242" s="1" t="s">
         <v>473</v>
@@ -15521,25 +15521,25 @@
         <v>248</v>
       </c>
       <c r="B243">
-        <v>0.01123595505617977</v>
+        <v>0.01063829787234043</v>
       </c>
       <c r="C243">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D243">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="E243">
-        <v>0.91</v>
+        <v>0.93</v>
       </c>
       <c r="F243">
-        <v>0.08999999999999997</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G243" t="b">
         <v>1</v>
       </c>
       <c r="H243">
-        <v>88</v>
+        <v>186</v>
       </c>
       <c r="J243" s="1" t="s">
         <v>474</v>
@@ -15571,25 +15571,25 @@
         <v>249</v>
       </c>
       <c r="B244">
-        <v>0.01066098081023454</v>
+        <v>0.01020408163265306</v>
       </c>
       <c r="C244">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D244">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="E244">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="F244">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="G244" t="b">
         <v>1</v>
       </c>
       <c r="H244">
-        <v>928</v>
+        <v>97</v>
       </c>
       <c r="J244" s="1" t="s">
         <v>475</v>
@@ -15621,28 +15621,28 @@
         <v>250</v>
       </c>
       <c r="B245">
-        <v>0.01063829787234043</v>
+        <v>0.01020408163265306</v>
       </c>
       <c r="C245">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D245">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="E245">
-        <v>0.93</v>
+        <v>0.75</v>
       </c>
       <c r="F245">
-        <v>0.06999999999999995</v>
+        <v>0.25</v>
       </c>
       <c r="G245" t="b">
         <v>1</v>
       </c>
       <c r="H245">
-        <v>186</v>
+        <v>97</v>
       </c>
       <c r="J245" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="K245">
         <v>0.1428571428571428</v>
@@ -15671,25 +15671,25 @@
         <v>251</v>
       </c>
       <c r="B246">
-        <v>0.01020408163265306</v>
+        <v>0.0101010101010101</v>
       </c>
       <c r="C246">
         <v>1</v>
       </c>
       <c r="D246">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E246">
-        <v>0.67</v>
+        <v>0.91</v>
       </c>
       <c r="F246">
-        <v>0.33</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G246" t="b">
         <v>1</v>
       </c>
       <c r="H246">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J246" s="1" t="s">
         <v>476</v>
@@ -15721,25 +15721,25 @@
         <v>252</v>
       </c>
       <c r="B247">
-        <v>0.01020408163265306</v>
+        <v>0.009615384615384616</v>
       </c>
       <c r="C247">
         <v>1</v>
       </c>
       <c r="D247">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E247">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="F247">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="G247" t="b">
         <v>1</v>
       </c>
       <c r="H247">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="J247" s="1" t="s">
         <v>122</v>
@@ -15771,25 +15771,25 @@
         <v>253</v>
       </c>
       <c r="B248">
-        <v>0.0101010101010101</v>
+        <v>0.009389671361502348</v>
       </c>
       <c r="C248">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D248">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E248">
-        <v>0.91</v>
+        <v>0.88</v>
       </c>
       <c r="F248">
-        <v>0.08999999999999997</v>
+        <v>0.12</v>
       </c>
       <c r="G248" t="b">
         <v>1</v>
       </c>
       <c r="H248">
-        <v>98</v>
+        <v>211</v>
       </c>
       <c r="J248" s="1" t="s">
         <v>477</v>
@@ -15821,25 +15821,25 @@
         <v>254</v>
       </c>
       <c r="B249">
-        <v>0.009615384615384616</v>
+        <v>0.008695652173913044</v>
       </c>
       <c r="C249">
         <v>1</v>
       </c>
       <c r="D249">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="E249">
-        <v>0.67</v>
+        <v>0.95</v>
       </c>
       <c r="F249">
-        <v>0.33</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G249" t="b">
         <v>1</v>
       </c>
       <c r="H249">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="J249" s="1" t="s">
         <v>478</v>
@@ -15871,25 +15871,25 @@
         <v>255</v>
       </c>
       <c r="B250">
-        <v>0.009389671361502348</v>
+        <v>0.008474576271186441</v>
       </c>
       <c r="C250">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D250">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E250">
-        <v>0.88</v>
+        <v>0.9</v>
       </c>
       <c r="F250">
-        <v>0.12</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G250" t="b">
         <v>1</v>
       </c>
       <c r="H250">
-        <v>211</v>
+        <v>117</v>
       </c>
       <c r="J250" s="1" t="s">
         <v>479</v>
@@ -15921,25 +15921,25 @@
         <v>256</v>
       </c>
       <c r="B251">
-        <v>0.008695652173913044</v>
+        <v>0.008417508417508417</v>
       </c>
       <c r="C251">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D251">
-        <v>19</v>
+        <v>61</v>
       </c>
       <c r="E251">
-        <v>0.95</v>
+        <v>0.92</v>
       </c>
       <c r="F251">
-        <v>0.05000000000000004</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G251" t="b">
         <v>1</v>
       </c>
       <c r="H251">
-        <v>114</v>
+        <v>589</v>
       </c>
       <c r="J251" s="1" t="s">
         <v>480</v>
@@ -15971,25 +15971,25 @@
         <v>257</v>
       </c>
       <c r="B252">
-        <v>0.008474576271186441</v>
+        <v>0.00819672131147541</v>
       </c>
       <c r="C252">
         <v>1</v>
       </c>
       <c r="D252">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="E252">
-        <v>0.9</v>
+        <v>0.97</v>
       </c>
       <c r="F252">
-        <v>0.09999999999999998</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G252" t="b">
         <v>1</v>
       </c>
       <c r="H252">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="J252" s="1" t="s">
         <v>481</v>
@@ -16021,25 +16021,25 @@
         <v>258</v>
       </c>
       <c r="B253">
-        <v>0.008417508417508417</v>
+        <v>0.008064516129032258</v>
       </c>
       <c r="C253">
+        <v>1</v>
+      </c>
+      <c r="D253">
         <v>5</v>
       </c>
-      <c r="D253">
-        <v>61</v>
-      </c>
       <c r="E253">
-        <v>0.92</v>
+        <v>0.8</v>
       </c>
       <c r="F253">
-        <v>0.07999999999999996</v>
+        <v>0.2</v>
       </c>
       <c r="G253" t="b">
         <v>1</v>
       </c>
       <c r="H253">
-        <v>589</v>
+        <v>123</v>
       </c>
       <c r="J253" s="1" t="s">
         <v>482</v>
@@ -16071,13 +16071,13 @@
         <v>259</v>
       </c>
       <c r="B254">
-        <v>0.00819672131147541</v>
+        <v>0.007692307692307693</v>
       </c>
       <c r="C254">
         <v>1</v>
       </c>
       <c r="D254">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E254">
         <v>0.97</v>
@@ -16089,7 +16089,7 @@
         <v>1</v>
       </c>
       <c r="H254">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="J254" s="1" t="s">
         <v>483</v>
@@ -16121,25 +16121,25 @@
         <v>260</v>
       </c>
       <c r="B255">
-        <v>0.008064516129032258</v>
+        <v>0.007575757575757576</v>
       </c>
       <c r="C255">
         <v>1</v>
       </c>
       <c r="D255">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E255">
-        <v>0.8</v>
+        <v>0.86</v>
       </c>
       <c r="F255">
-        <v>0.2</v>
+        <v>0.14</v>
       </c>
       <c r="G255" t="b">
         <v>1</v>
       </c>
       <c r="H255">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="J255" s="1" t="s">
         <v>484</v>
@@ -16171,25 +16171,25 @@
         <v>261</v>
       </c>
       <c r="B256">
-        <v>0.007692307692307693</v>
+        <v>0.007462686567164179</v>
       </c>
       <c r="C256">
         <v>1</v>
       </c>
       <c r="D256">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="E256">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="F256">
-        <v>0.03000000000000003</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G256" t="b">
         <v>1</v>
       </c>
       <c r="H256">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="J256" s="1" t="s">
         <v>485</v>
@@ -16221,25 +16221,25 @@
         <v>262</v>
       </c>
       <c r="B257">
-        <v>0.007575757575757576</v>
+        <v>0.007352941176470588</v>
       </c>
       <c r="C257">
         <v>1</v>
       </c>
       <c r="D257">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E257">
-        <v>0.86</v>
+        <v>0.67</v>
       </c>
       <c r="F257">
-        <v>0.14</v>
+        <v>0.33</v>
       </c>
       <c r="G257" t="b">
         <v>1</v>
       </c>
       <c r="H257">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="J257" s="1" t="s">
         <v>486</v>
@@ -16271,25 +16271,25 @@
         <v>263</v>
       </c>
       <c r="B258">
-        <v>0.007462686567164179</v>
+        <v>0.006993006993006993</v>
       </c>
       <c r="C258">
         <v>1</v>
       </c>
       <c r="D258">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="E258">
-        <v>0.96</v>
+        <v>0.67</v>
       </c>
       <c r="F258">
-        <v>0.04000000000000004</v>
+        <v>0.33</v>
       </c>
       <c r="G258" t="b">
         <v>1</v>
       </c>
       <c r="H258">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="J258" s="1" t="s">
         <v>487</v>
@@ -16321,25 +16321,25 @@
         <v>264</v>
       </c>
       <c r="B259">
-        <v>0.007352941176470588</v>
+        <v>0.006896551724137931</v>
       </c>
       <c r="C259">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D259">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E259">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="F259">
-        <v>0.33</v>
+        <v>0.4</v>
       </c>
       <c r="G259" t="b">
         <v>1</v>
       </c>
       <c r="H259">
-        <v>135</v>
+        <v>288</v>
       </c>
       <c r="J259" s="1" t="s">
         <v>488</v>
@@ -16371,25 +16371,25 @@
         <v>265</v>
       </c>
       <c r="B260">
-        <v>0.006993006993006993</v>
+        <v>0.006451612903225806</v>
       </c>
       <c r="C260">
         <v>1</v>
       </c>
       <c r="D260">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E260">
-        <v>0.67</v>
+        <v>0.92</v>
       </c>
       <c r="F260">
-        <v>0.33</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G260" t="b">
         <v>1</v>
       </c>
       <c r="H260">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="J260" s="1" t="s">
         <v>489</v>
@@ -16421,25 +16421,25 @@
         <v>266</v>
       </c>
       <c r="B261">
-        <v>0.006896551724137931</v>
+        <v>0.006211180124223602</v>
       </c>
       <c r="C261">
         <v>2</v>
       </c>
       <c r="D261">
-        <v>5</v>
+        <v>98</v>
       </c>
       <c r="E261">
-        <v>0.6</v>
+        <v>0.98</v>
       </c>
       <c r="F261">
-        <v>0.4</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G261" t="b">
         <v>1</v>
       </c>
       <c r="H261">
-        <v>288</v>
+        <v>320</v>
       </c>
       <c r="J261" s="1" t="s">
         <v>490</v>
@@ -16471,25 +16471,25 @@
         <v>267</v>
       </c>
       <c r="B262">
-        <v>0.006451612903225806</v>
+        <v>0.005810882197569995</v>
       </c>
       <c r="C262">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D262">
-        <v>12</v>
+        <v>261</v>
       </c>
       <c r="E262">
-        <v>0.92</v>
+        <v>0.96</v>
       </c>
       <c r="F262">
-        <v>0.07999999999999996</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G262" t="b">
         <v>1</v>
       </c>
       <c r="H262">
-        <v>154</v>
+        <v>1882</v>
       </c>
       <c r="J262" s="1" t="s">
         <v>491</v>
@@ -16521,28 +16521,28 @@
         <v>268</v>
       </c>
       <c r="B263">
-        <v>0.006211180124223602</v>
+        <v>0.005736137667304016</v>
       </c>
       <c r="C263">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D263">
-        <v>98</v>
+        <v>25</v>
       </c>
       <c r="E263">
-        <v>0.98</v>
+        <v>0.88</v>
       </c>
       <c r="F263">
-        <v>0.02000000000000002</v>
+        <v>0.12</v>
       </c>
       <c r="G263" t="b">
         <v>1</v>
       </c>
       <c r="H263">
-        <v>320</v>
+        <v>520</v>
       </c>
       <c r="J263" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="K263">
         <v>0.1408450704225352</v>
@@ -16571,25 +16571,25 @@
         <v>269</v>
       </c>
       <c r="B264">
-        <v>0.005810882197569995</v>
+        <v>0.005681818181818182</v>
       </c>
       <c r="C264">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D264">
-        <v>261</v>
+        <v>42</v>
       </c>
       <c r="E264">
-        <v>0.96</v>
+        <v>0.93</v>
       </c>
       <c r="F264">
-        <v>0.04000000000000004</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G264" t="b">
         <v>1</v>
       </c>
       <c r="H264">
-        <v>1882</v>
+        <v>525</v>
       </c>
       <c r="J264" s="1" t="s">
         <v>492</v>
@@ -16621,28 +16621,28 @@
         <v>270</v>
       </c>
       <c r="B265">
-        <v>0.005736137667304016</v>
+        <v>0.005449591280653951</v>
       </c>
       <c r="C265">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D265">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="E265">
-        <v>0.88</v>
+        <v>0.96</v>
       </c>
       <c r="F265">
-        <v>0.12</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G265" t="b">
         <v>1</v>
       </c>
       <c r="H265">
-        <v>520</v>
+        <v>365</v>
       </c>
       <c r="J265" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K265">
         <v>0.1379310344827586</v>
@@ -16671,28 +16671,28 @@
         <v>271</v>
       </c>
       <c r="B266">
-        <v>0.005681818181818182</v>
+        <v>0.005319148936170213</v>
       </c>
       <c r="C266">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D266">
-        <v>42</v>
+        <v>4</v>
       </c>
       <c r="E266">
-        <v>0.93</v>
+        <v>0.75</v>
       </c>
       <c r="F266">
-        <v>0.06999999999999995</v>
+        <v>0.25</v>
       </c>
       <c r="G266" t="b">
         <v>1</v>
       </c>
       <c r="H266">
-        <v>525</v>
+        <v>187</v>
       </c>
       <c r="J266" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="K266">
         <v>0.1363636363636364</v>
@@ -16721,13 +16721,13 @@
         <v>272</v>
       </c>
       <c r="B267">
-        <v>0.005449591280653951</v>
+        <v>0.005089058524173028</v>
       </c>
       <c r="C267">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D267">
-        <v>51</v>
+        <v>112</v>
       </c>
       <c r="E267">
         <v>0.96</v>
@@ -16739,10 +16739,10 @@
         <v>1</v>
       </c>
       <c r="H267">
-        <v>365</v>
+        <v>782</v>
       </c>
       <c r="J267" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="K267">
         <v>0.1363636363636364</v>
@@ -16771,25 +16771,25 @@
         <v>273</v>
       </c>
       <c r="B268">
-        <v>0.005319148936170213</v>
+        <v>0.004807692307692308</v>
       </c>
       <c r="C268">
         <v>1</v>
       </c>
       <c r="D268">
-        <v>4</v>
+        <v>176</v>
       </c>
       <c r="E268">
-        <v>0.75</v>
+        <v>0.99</v>
       </c>
       <c r="F268">
-        <v>0.25</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G268" t="b">
         <v>1</v>
       </c>
       <c r="H268">
-        <v>187</v>
+        <v>207</v>
       </c>
       <c r="J268" s="1" t="s">
         <v>493</v>
@@ -16821,13 +16821,13 @@
         <v>274</v>
       </c>
       <c r="B269">
-        <v>0.005089058524173028</v>
+        <v>0.004716981132075472</v>
       </c>
       <c r="C269">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D269">
-        <v>112</v>
+        <v>26</v>
       </c>
       <c r="E269">
         <v>0.96</v>
@@ -16839,7 +16839,7 @@
         <v>1</v>
       </c>
       <c r="H269">
-        <v>782</v>
+        <v>211</v>
       </c>
       <c r="J269" s="1" t="s">
         <v>494</v>
@@ -16871,25 +16871,25 @@
         <v>275</v>
       </c>
       <c r="B270">
-        <v>0.004807692307692308</v>
+        <v>0.0045662100456621</v>
       </c>
       <c r="C270">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D270">
-        <v>176</v>
+        <v>71</v>
       </c>
       <c r="E270">
-        <v>0.99</v>
+        <v>0.93</v>
       </c>
       <c r="F270">
-        <v>0.01000000000000001</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G270" t="b">
         <v>1</v>
       </c>
       <c r="H270">
-        <v>207</v>
+        <v>1090</v>
       </c>
       <c r="J270" s="1" t="s">
         <v>495</v>
@@ -16921,25 +16921,25 @@
         <v>276</v>
       </c>
       <c r="B271">
-        <v>0.004716981132075472</v>
+        <v>0.004016064257028112</v>
       </c>
       <c r="C271">
         <v>1</v>
       </c>
       <c r="D271">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="E271">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="F271">
-        <v>0.04000000000000004</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G271" t="b">
         <v>1</v>
       </c>
       <c r="H271">
-        <v>211</v>
+        <v>248</v>
       </c>
       <c r="J271" s="1" t="s">
         <v>496</v>
@@ -16971,25 +16971,25 @@
         <v>277</v>
       </c>
       <c r="B272">
-        <v>0.0045662100456621</v>
+        <v>0.003968253968253968</v>
       </c>
       <c r="C272">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D272">
-        <v>71</v>
+        <v>1</v>
       </c>
       <c r="E272">
-        <v>0.93</v>
+        <v>0</v>
       </c>
       <c r="F272">
-        <v>0.06999999999999995</v>
+        <v>1</v>
       </c>
       <c r="G272" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H272">
-        <v>1090</v>
+        <v>251</v>
       </c>
       <c r="J272" s="1" t="s">
         <v>497</v>
@@ -17021,28 +17021,28 @@
         <v>278</v>
       </c>
       <c r="B273">
-        <v>0.004016064257028112</v>
+        <v>0.003811944091486658</v>
       </c>
       <c r="C273">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D273">
-        <v>19</v>
+        <v>83</v>
       </c>
       <c r="E273">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="F273">
-        <v>0.05000000000000004</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G273" t="b">
         <v>1</v>
       </c>
       <c r="H273">
-        <v>248</v>
+        <v>784</v>
       </c>
       <c r="J273" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K273">
         <v>0.1343283582089552</v>
@@ -17071,25 +17071,25 @@
         <v>279</v>
       </c>
       <c r="B274">
-        <v>0.003968253968253968</v>
+        <v>0.003722084367245658</v>
       </c>
       <c r="C274">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D274">
-        <v>1</v>
+        <v>98</v>
       </c>
       <c r="E274">
-        <v>0</v>
+        <v>0.97</v>
       </c>
       <c r="F274">
-        <v>1</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G274" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H274">
-        <v>251</v>
+        <v>803</v>
       </c>
       <c r="J274" s="1" t="s">
         <v>498</v>
@@ -17121,25 +17121,25 @@
         <v>280</v>
       </c>
       <c r="B275">
-        <v>0.003811944091486658</v>
+        <v>0.003625815808556926</v>
       </c>
       <c r="C275">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D275">
-        <v>83</v>
+        <v>359</v>
       </c>
       <c r="E275">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="F275">
-        <v>0.04000000000000004</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G275" t="b">
         <v>1</v>
       </c>
       <c r="H275">
-        <v>784</v>
+        <v>2748</v>
       </c>
       <c r="J275" s="1" t="s">
         <v>499</v>
@@ -17171,25 +17171,25 @@
         <v>281</v>
       </c>
       <c r="B276">
-        <v>0.003722084367245658</v>
+        <v>0.003508771929824561</v>
       </c>
       <c r="C276">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D276">
-        <v>98</v>
+        <v>43</v>
       </c>
       <c r="E276">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="F276">
-        <v>0.03000000000000003</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G276" t="b">
         <v>1</v>
       </c>
       <c r="H276">
-        <v>803</v>
+        <v>284</v>
       </c>
       <c r="J276" s="1" t="s">
         <v>500</v>
@@ -17221,25 +17221,25 @@
         <v>282</v>
       </c>
       <c r="B277">
-        <v>0.003625815808556926</v>
+        <v>0.003334444814938313</v>
       </c>
       <c r="C277">
         <v>10</v>
       </c>
       <c r="D277">
-        <v>359</v>
+        <v>212</v>
       </c>
       <c r="E277">
-        <v>0.97</v>
+        <v>0.95</v>
       </c>
       <c r="F277">
-        <v>0.03000000000000003</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G277" t="b">
         <v>1</v>
       </c>
       <c r="H277">
-        <v>2748</v>
+        <v>2989</v>
       </c>
       <c r="J277" s="1" t="s">
         <v>501</v>
@@ -17271,25 +17271,25 @@
         <v>283</v>
       </c>
       <c r="B278">
-        <v>0.003508771929824561</v>
+        <v>0.002849002849002849</v>
       </c>
       <c r="C278">
         <v>1</v>
       </c>
       <c r="D278">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="E278">
-        <v>0.98</v>
+        <v>0.9</v>
       </c>
       <c r="F278">
-        <v>0.02000000000000002</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G278" t="b">
         <v>1</v>
       </c>
       <c r="H278">
-        <v>284</v>
+        <v>350</v>
       </c>
       <c r="J278" s="1" t="s">
         <v>502</v>
@@ -17321,25 +17321,25 @@
         <v>284</v>
       </c>
       <c r="B279">
-        <v>0.003334444814938313</v>
+        <v>0.002173913043478261</v>
       </c>
       <c r="C279">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D279">
-        <v>212</v>
+        <v>5</v>
       </c>
       <c r="E279">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="F279">
-        <v>0.05000000000000004</v>
+        <v>0.2</v>
       </c>
       <c r="G279" t="b">
         <v>1</v>
       </c>
       <c r="H279">
-        <v>2989</v>
+        <v>459</v>
       </c>
       <c r="J279" s="1" t="s">
         <v>76</v>
@@ -17367,30 +17367,6 @@
       </c>
     </row>
     <row r="280" spans="1:17">
-      <c r="A280" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="B280">
-        <v>0.002849002849002849</v>
-      </c>
-      <c r="C280">
-        <v>1</v>
-      </c>
-      <c r="D280">
-        <v>10</v>
-      </c>
-      <c r="E280">
-        <v>0.9</v>
-      </c>
-      <c r="F280">
-        <v>0.09999999999999998</v>
-      </c>
-      <c r="G280" t="b">
-        <v>1</v>
-      </c>
-      <c r="H280">
-        <v>350</v>
-      </c>
       <c r="J280" s="1" t="s">
         <v>503</v>
       </c>
@@ -17417,30 +17393,6 @@
       </c>
     </row>
     <row r="281" spans="1:17">
-      <c r="A281" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="B281">
-        <v>0.002173913043478261</v>
-      </c>
-      <c r="C281">
-        <v>1</v>
-      </c>
-      <c r="D281">
-        <v>5</v>
-      </c>
-      <c r="E281">
-        <v>0.8</v>
-      </c>
-      <c r="F281">
-        <v>0.2</v>
-      </c>
-      <c r="G281" t="b">
-        <v>1</v>
-      </c>
-      <c r="H281">
-        <v>459</v>
-      </c>
       <c r="J281" s="1" t="s">
         <v>504</v>
       </c>
@@ -17598,7 +17550,7 @@
     </row>
     <row r="287" spans="1:17">
       <c r="J287" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="K287">
         <v>0.1311475409836066</v>
@@ -17676,7 +17628,7 @@
     </row>
     <row r="290" spans="10:17">
       <c r="J290" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="K290">
         <v>0.1304347826086956</v>
@@ -17754,7 +17706,7 @@
     </row>
     <row r="293" spans="10:17">
       <c r="J293" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K293">
         <v>0.1290322580645161</v>
@@ -17780,7 +17732,7 @@
     </row>
     <row r="294" spans="10:17">
       <c r="J294" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="K294">
         <v>0.1288343558282209</v>
@@ -17806,7 +17758,7 @@
     </row>
     <row r="295" spans="10:17">
       <c r="J295" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="K295">
         <v>0.1267605633802817</v>
@@ -18950,7 +18902,7 @@
     </row>
     <row r="339" spans="10:17">
       <c r="J339" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="K339">
         <v>0.1213483146067416</v>
@@ -19028,7 +18980,7 @@
     </row>
     <row r="342" spans="10:17">
       <c r="J342" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="K342">
         <v>0.12</v>
@@ -19158,7 +19110,7 @@
     </row>
     <row r="347" spans="10:17">
       <c r="J347" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="K347">
         <v>0.1183574879227053</v>
@@ -19184,7 +19136,7 @@
     </row>
     <row r="348" spans="10:17">
       <c r="J348" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="K348">
         <v>0.1181818181818182</v>
@@ -19210,7 +19162,7 @@
     </row>
     <row r="349" spans="10:17">
       <c r="J349" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K349">
         <v>0.1176470588235294</v>
@@ -19288,7 +19240,7 @@
     </row>
     <row r="352" spans="10:17">
       <c r="J352" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K352">
         <v>0.1172607879924953</v>
@@ -19314,7 +19266,7 @@
     </row>
     <row r="353" spans="10:17">
       <c r="J353" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="K353">
         <v>0.1153846153846154</v>
@@ -19418,7 +19370,7 @@
     </row>
     <row r="357" spans="10:17">
       <c r="J357" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="K357">
         <v>0.1126896997093962</v>
@@ -20250,7 +20202,7 @@
     </row>
     <row r="389" spans="10:17">
       <c r="J389" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="K389">
         <v>0.1090909090909091</v>
@@ -20276,7 +20228,7 @@
     </row>
     <row r="390" spans="10:17">
       <c r="J390" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="K390">
         <v>0.1090909090909091</v>
@@ -20354,7 +20306,7 @@
     </row>
     <row r="393" spans="10:17">
       <c r="J393" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K393">
         <v>0.1063829787234043</v>
@@ -20380,7 +20332,7 @@
     </row>
     <row r="394" spans="10:17">
       <c r="J394" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K394">
         <v>0.1059322033898305</v>
@@ -20406,7 +20358,7 @@
     </row>
     <row r="395" spans="10:17">
       <c r="J395" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="K395">
         <v>0.1057906458797327</v>
@@ -20458,7 +20410,7 @@
     </row>
     <row r="397" spans="10:17">
       <c r="J397" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="K397">
         <v>0.1052631578947368</v>
@@ -20562,7 +20514,7 @@
     </row>
     <row r="401" spans="10:17">
       <c r="J401" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="K401">
         <v>0.1043478260869565</v>
@@ -20666,7 +20618,7 @@
     </row>
     <row r="405" spans="10:17">
       <c r="J405" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K405">
         <v>0.102803738317757</v>
@@ -20692,7 +20644,7 @@
     </row>
     <row r="406" spans="10:17">
       <c r="J406" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="K406">
         <v>0.1025641025641026</v>
@@ -20744,7 +20696,7 @@
     </row>
     <row r="408" spans="10:17">
       <c r="J408" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="K408">
         <v>0.1020408163265306</v>
@@ -21758,7 +21710,7 @@
     </row>
     <row r="447" spans="10:17">
       <c r="J447" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="K447">
         <v>0.09677419354838709</v>
@@ -21966,7 +21918,7 @@
     </row>
     <row r="455" spans="10:17">
       <c r="J455" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="K455">
         <v>0.0945945945945946</v>
@@ -22044,7 +21996,7 @@
     </row>
     <row r="458" spans="10:17">
       <c r="J458" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="K458">
         <v>0.09259259259259259</v>
@@ -22070,7 +22022,7 @@
     </row>
     <row r="459" spans="10:17">
       <c r="J459" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="K459">
         <v>0.09259259259259259</v>
@@ -22824,7 +22776,7 @@
     </row>
     <row r="488" spans="10:17">
       <c r="J488" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K488">
         <v>0.08682170542635659</v>
@@ -23500,7 +23452,7 @@
     </row>
     <row r="514" spans="10:17">
       <c r="J514" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="K514">
         <v>0.08064516129032258</v>
@@ -23630,7 +23582,7 @@
     </row>
     <row r="519" spans="10:17">
       <c r="J519" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="K519">
         <v>0.08</v>
@@ -23682,7 +23634,7 @@
     </row>
     <row r="521" spans="10:17">
       <c r="J521" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K521">
         <v>0.07777777777777778</v>
@@ -23916,7 +23868,7 @@
     </row>
     <row r="530" spans="10:17">
       <c r="J530" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="K530">
         <v>0.07692307692307693</v>
@@ -24020,7 +23972,7 @@
     </row>
     <row r="534" spans="10:17">
       <c r="J534" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K534">
         <v>0.07692307692307693</v>
@@ -24176,7 +24128,7 @@
     </row>
     <row r="540" spans="10:17">
       <c r="J540" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="K540">
         <v>0.0759493670886076</v>
@@ -24254,7 +24206,7 @@
     </row>
     <row r="543" spans="10:17">
       <c r="J543" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K543">
         <v>0.07407407407407407</v>
@@ -24358,7 +24310,7 @@
     </row>
     <row r="547" spans="10:17">
       <c r="J547" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="K547">
         <v>0.07246376811594203</v>
@@ -24722,7 +24674,7 @@
     </row>
     <row r="561" spans="10:17">
       <c r="J561" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="K561">
         <v>0.07142857142857142</v>
@@ -25164,7 +25116,7 @@
     </row>
     <row r="578" spans="10:17">
       <c r="J578" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="K578">
         <v>0.06914893617021277</v>
@@ -25216,7 +25168,7 @@
     </row>
     <row r="580" spans="10:17">
       <c r="J580" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K580">
         <v>0.06818181818181818</v>
@@ -25242,7 +25194,7 @@
     </row>
     <row r="581" spans="10:17">
       <c r="J581" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="K581">
         <v>0.06818181818181818</v>
@@ -25268,7 +25220,7 @@
     </row>
     <row r="582" spans="10:17">
       <c r="J582" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="K582">
         <v>0.06818181818181818</v>
@@ -25294,7 +25246,7 @@
     </row>
     <row r="583" spans="10:17">
       <c r="J583" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="K583">
         <v>0.06766917293233082</v>
@@ -25424,7 +25376,7 @@
     </row>
     <row r="588" spans="10:17">
       <c r="J588" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="K588">
         <v>0.06666666666666667</v>
@@ -25814,7 +25766,7 @@
     </row>
     <row r="603" spans="10:17">
       <c r="J603" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="K603">
         <v>0.06521739130434782</v>
@@ -26048,7 +26000,7 @@
     </row>
     <row r="612" spans="10:17">
       <c r="J612" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="K612">
         <v>0.06330303979943591</v>
@@ -26490,7 +26442,7 @@
     </row>
     <row r="629" spans="10:17">
       <c r="J629" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="K629">
         <v>0.06222222222222222</v>
@@ -26516,7 +26468,7 @@
     </row>
     <row r="630" spans="10:17">
       <c r="J630" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="K630">
         <v>0.06122448979591837</v>
@@ -26620,7 +26572,7 @@
     </row>
     <row r="634" spans="10:17">
       <c r="J634" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K634">
         <v>0.05882352941176471</v>
@@ -27114,7 +27066,7 @@
     </row>
     <row r="653" spans="10:17">
       <c r="J653" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K653">
         <v>0.0576923076923077</v>
@@ -27244,7 +27196,7 @@
     </row>
     <row r="658" spans="10:17">
       <c r="J658" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="K658">
         <v>0.05709342560553633</v>
@@ -27946,7 +27898,7 @@
     </row>
     <row r="685" spans="10:17">
       <c r="J685" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="K685">
         <v>0.05263157894736842</v>
@@ -28128,7 +28080,7 @@
     </row>
     <row r="692" spans="10:17">
       <c r="J692" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="K692">
         <v>0.05172413793103448</v>
@@ -28180,7 +28132,7 @@
     </row>
     <row r="694" spans="10:17">
       <c r="J694" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="K694">
         <v>0.05128205128205128</v>
@@ -28388,7 +28340,7 @@
     </row>
     <row r="702" spans="10:17">
       <c r="J702" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="K702">
         <v>0.05</v>
@@ -28778,7 +28730,7 @@
     </row>
     <row r="717" spans="10:17">
       <c r="J717" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K717">
         <v>0.04733727810650887</v>
@@ -28856,7 +28808,7 @@
     </row>
     <row r="720" spans="10:17">
       <c r="J720" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="K720">
         <v>0.04615384615384616</v>
@@ -29194,7 +29146,7 @@
     </row>
     <row r="733" spans="10:17">
       <c r="J733" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="K733">
         <v>0.04379562043795621</v>
@@ -29402,7 +29354,7 @@
     </row>
     <row r="741" spans="10:17">
       <c r="J741" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K741">
         <v>0.04347826086956522</v>
@@ -29688,7 +29640,7 @@
     </row>
     <row r="752" spans="10:17">
       <c r="J752" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="K752">
         <v>0.04059040590405904</v>
@@ -29922,7 +29874,7 @@
     </row>
     <row r="761" spans="10:17">
       <c r="J761" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="K761">
         <v>0.03846153846153846</v>
@@ -30260,7 +30212,7 @@
     </row>
     <row r="774" spans="10:17">
       <c r="J774" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="K774">
         <v>0.03636363636363636</v>
@@ -30364,7 +30316,7 @@
     </row>
     <row r="778" spans="10:17">
       <c r="J778" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K778">
         <v>0.03571428571428571</v>
@@ -30390,7 +30342,7 @@
     </row>
     <row r="779" spans="10:17">
       <c r="J779" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K779">
         <v>0.03571428571428571</v>
@@ -30754,7 +30706,7 @@
     </row>
     <row r="793" spans="10:17">
       <c r="J793" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="K793">
         <v>0.03225806451612903</v>
@@ -30858,7 +30810,7 @@
     </row>
     <row r="797" spans="10:17">
       <c r="J797" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="K797">
         <v>0.03149606299212598</v>
@@ -30884,7 +30836,7 @@
     </row>
     <row r="798" spans="10:17">
       <c r="J798" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="K798">
         <v>0.03131524008350731</v>
@@ -31118,7 +31070,7 @@
     </row>
     <row r="807" spans="10:17">
       <c r="J807" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="K807">
         <v>0.03</v>
@@ -31768,7 +31720,7 @@
     </row>
     <row r="832" spans="10:17">
       <c r="J832" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="K832">
         <v>0.02506963788300836</v>
@@ -31794,7 +31746,7 @@
     </row>
     <row r="833" spans="10:17">
       <c r="J833" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K833">
         <v>0.025</v>
@@ -32054,7 +32006,7 @@
     </row>
     <row r="843" spans="10:17">
       <c r="J843" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="K843">
         <v>0.02380952380952381</v>
@@ -32392,7 +32344,7 @@
     </row>
     <row r="856" spans="10:17">
       <c r="J856" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="K856">
         <v>0.0202020202020202</v>
@@ -32574,7 +32526,7 @@
     </row>
     <row r="863" spans="10:17">
       <c r="J863" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="K863">
         <v>0.01904761904761905</v>
@@ -32730,7 +32682,7 @@
     </row>
     <row r="869" spans="10:17">
       <c r="J869" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="K869">
         <v>0.01578947368421053</v>
@@ -32834,7 +32786,7 @@
     </row>
     <row r="873" spans="10:17">
       <c r="J873" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="K873">
         <v>0.0145985401459854</v>
@@ -32860,7 +32812,7 @@
     </row>
     <row r="874" spans="10:17">
       <c r="J874" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="K874">
         <v>0.01388888888888889</v>
@@ -32990,7 +32942,7 @@
     </row>
     <row r="879" spans="10:17">
       <c r="J879" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="K879">
         <v>0.0119047619047619</v>
@@ -33042,7 +32994,7 @@
     </row>
     <row r="881" spans="10:17">
       <c r="J881" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="K881">
         <v>0.01030927835051546</v>
@@ -33068,7 +33020,7 @@
     </row>
     <row r="882" spans="10:17">
       <c r="J882" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="K882">
         <v>0.008639308855291577</v>
